--- a/CMCP_Manufacturing/InputCMPC.xlsx
+++ b/CMCP_Manufacturing/InputCMPC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\Source\CMPC-manufacturing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\Source\CMPC-manufacturing\CMCP_Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAC8CD7-A857-4191-8EEC-7EF50C6940FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDFB35D-BC4A-4DBF-B657-FF050A7FF5A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16695" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="6045" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="100">
   <si>
     <t>100-AAA-05-016</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>co_packsize_time</t>
+  </si>
+  <si>
+    <t>inventory</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R469"/>
+  <dimension ref="A1:S469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F452" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1353,7 @@
     <col min="13" max="18" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1405,8 +1408,11 @@
       <c r="R1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,8 +1467,11 @@
       <c r="R2" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1517,8 +1526,11 @@
       <c r="R3" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,8 +1585,11 @@
       <c r="R4" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,8 +1644,11 @@
       <c r="R5" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,8 +1703,11 @@
       <c r="R6" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,8 +1762,11 @@
       <c r="R7" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,8 +1821,11 @@
       <c r="R8" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1853,8 +1880,11 @@
       <c r="R9" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,8 +1939,11 @@
       <c r="R10" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,8 +1998,11 @@
       <c r="R11" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,8 +2057,11 @@
       <c r="R12" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2077,8 +2116,11 @@
       <c r="R13" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2133,8 +2175,11 @@
       <c r="R14" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2189,8 +2234,11 @@
       <c r="R15" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2245,8 +2293,11 @@
       <c r="R16" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2301,8 +2352,11 @@
       <c r="R17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2357,8 +2411,11 @@
       <c r="R18" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2413,8 +2470,11 @@
       <c r="R19" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2469,8 +2529,11 @@
       <c r="R20" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2525,8 +2588,11 @@
       <c r="R21" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2581,8 +2647,11 @@
       <c r="R22" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2637,8 +2706,11 @@
       <c r="R23" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2693,8 +2765,11 @@
       <c r="R24" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2749,8 +2824,11 @@
       <c r="R25" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2805,8 +2883,11 @@
       <c r="R26" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2861,8 +2942,11 @@
       <c r="R27" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2917,8 +3001,11 @@
       <c r="R28" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2973,8 +3060,11 @@
       <c r="R29" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3029,8 +3119,11 @@
       <c r="R30" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3085,8 +3178,11 @@
       <c r="R31" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -3141,8 +3237,11 @@
       <c r="R32" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -3197,8 +3296,11 @@
       <c r="R33" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -3253,8 +3355,11 @@
       <c r="R34" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -3309,8 +3414,11 @@
       <c r="R35" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -3365,8 +3473,11 @@
       <c r="R36" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -3421,8 +3532,11 @@
       <c r="R37" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3591,11 @@
       <c r="R38" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -3533,8 +3650,11 @@
       <c r="R39" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -3589,8 +3709,11 @@
       <c r="R40" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -3645,8 +3768,11 @@
       <c r="R41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3827,11 @@
       <c r="R42" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3757,8 +3886,11 @@
       <c r="R43" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -3813,8 +3945,11 @@
       <c r="R44" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4004,11 @@
       <c r="R45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -3925,8 +4063,11 @@
       <c r="R46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -3981,8 +4122,11 @@
       <c r="R47" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4181,11 @@
       <c r="R48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -4093,8 +4240,11 @@
       <c r="R49" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -4149,8 +4299,11 @@
       <c r="R50" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -4205,8 +4358,11 @@
       <c r="R51" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -4261,8 +4417,11 @@
       <c r="R52" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -4317,8 +4476,11 @@
       <c r="R53" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -4373,8 +4535,11 @@
       <c r="R54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -4429,8 +4594,11 @@
       <c r="R55" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -4485,8 +4653,11 @@
       <c r="R56" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -4541,8 +4712,11 @@
       <c r="R57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -4597,8 +4771,11 @@
       <c r="R58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -4653,8 +4830,11 @@
       <c r="R59" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -4709,8 +4889,11 @@
       <c r="R60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -4765,8 +4948,11 @@
       <c r="R61" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4821,8 +5007,11 @@
       <c r="R62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -4877,8 +5066,11 @@
       <c r="R63" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -4933,8 +5125,11 @@
       <c r="R64" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -4989,8 +5184,11 @@
       <c r="R65" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -5045,8 +5243,11 @@
       <c r="R66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -5101,8 +5302,11 @@
       <c r="R67" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -5157,8 +5361,11 @@
       <c r="R68" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -5213,8 +5420,11 @@
       <c r="R69" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -5269,8 +5479,11 @@
       <c r="R70" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -5325,8 +5538,11 @@
       <c r="R71" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -5381,8 +5597,11 @@
       <c r="R72" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -5437,8 +5656,11 @@
       <c r="R73" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -5493,8 +5715,11 @@
       <c r="R74" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -5549,8 +5774,11 @@
       <c r="R75" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -5605,8 +5833,11 @@
       <c r="R76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -5661,8 +5892,11 @@
       <c r="R77" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -5717,8 +5951,11 @@
       <c r="R78" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -5773,8 +6010,11 @@
       <c r="R79" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -5829,8 +6069,11 @@
       <c r="R80" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -5885,8 +6128,11 @@
       <c r="R81" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -5941,8 +6187,11 @@
       <c r="R82" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -5997,8 +6246,11 @@
       <c r="R83" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -6053,8 +6305,11 @@
       <c r="R84" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -6109,8 +6364,11 @@
       <c r="R85" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -6165,8 +6423,11 @@
       <c r="R86" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -6221,8 +6482,11 @@
       <c r="R87" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -6277,8 +6541,11 @@
       <c r="R88" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -6333,8 +6600,11 @@
       <c r="R89" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -6389,8 +6659,11 @@
       <c r="R90" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -6445,8 +6718,11 @@
       <c r="R91" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -6501,8 +6777,11 @@
       <c r="R92" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -6557,8 +6836,11 @@
       <c r="R93" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -6613,8 +6895,11 @@
       <c r="R94" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -6669,8 +6954,11 @@
       <c r="R95" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -6725,8 +7013,11 @@
       <c r="R96" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -6781,8 +7072,11 @@
       <c r="R97" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -6837,8 +7131,11 @@
       <c r="R98" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -6893,8 +7190,11 @@
       <c r="R99" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -6949,8 +7249,11 @@
       <c r="R100" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -7005,8 +7308,11 @@
       <c r="R101" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -7061,8 +7367,11 @@
       <c r="R102" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -7117,8 +7426,11 @@
       <c r="R103" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
@@ -7173,8 +7485,11 @@
       <c r="R104" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -7229,8 +7544,11 @@
       <c r="R105" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -7285,8 +7603,11 @@
       <c r="R106" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -7341,8 +7662,11 @@
       <c r="R107" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
@@ -7397,8 +7721,11 @@
       <c r="R108" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -7453,8 +7780,11 @@
       <c r="R109" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -7509,8 +7839,11 @@
       <c r="R110" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -7565,8 +7898,11 @@
       <c r="R111" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -7621,8 +7957,11 @@
       <c r="R112" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -7677,8 +8016,11 @@
       <c r="R113" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -7733,8 +8075,11 @@
       <c r="R114" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -7789,8 +8134,11 @@
       <c r="R115" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -7845,8 +8193,11 @@
       <c r="R116" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -7901,8 +8252,11 @@
       <c r="R117" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -7957,8 +8311,11 @@
       <c r="R118" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -8013,8 +8370,11 @@
       <c r="R119" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -8069,8 +8429,11 @@
       <c r="R120" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -8125,8 +8488,11 @@
       <c r="R121" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -8181,8 +8547,11 @@
       <c r="R122" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -8237,8 +8606,11 @@
       <c r="R123" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -8293,8 +8665,11 @@
       <c r="R124" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -8349,8 +8724,11 @@
       <c r="R125" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -8405,8 +8783,11 @@
       <c r="R126" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -8461,8 +8842,11 @@
       <c r="R127" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -8517,8 +8901,11 @@
       <c r="R128" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -8573,8 +8960,11 @@
       <c r="R129" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>10</v>
       </c>
@@ -8629,8 +9019,11 @@
       <c r="R130" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -8685,8 +9078,11 @@
       <c r="R131" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -8741,8 +9137,11 @@
       <c r="R132" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -8797,8 +9196,11 @@
       <c r="R133" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -8853,8 +9255,11 @@
       <c r="R134" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -8909,8 +9314,11 @@
       <c r="R135" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -8965,8 +9373,11 @@
       <c r="R136" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -9021,8 +9432,11 @@
       <c r="R137" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -9077,8 +9491,11 @@
       <c r="R138" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -9133,8 +9550,11 @@
       <c r="R139" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -9189,8 +9609,11 @@
       <c r="R140" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -9245,8 +9668,11 @@
       <c r="R141" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
@@ -9301,8 +9727,11 @@
       <c r="R142" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
@@ -9357,8 +9786,11 @@
       <c r="R143" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -9413,8 +9845,11 @@
       <c r="R144" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -9469,8 +9904,11 @@
       <c r="R145" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -9525,8 +9963,11 @@
       <c r="R146" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -9581,8 +10022,11 @@
       <c r="R147" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -9637,8 +10081,11 @@
       <c r="R148" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
@@ -9693,8 +10140,11 @@
       <c r="R149" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -9749,8 +10199,11 @@
       <c r="R150" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -9805,8 +10258,11 @@
       <c r="R151" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -9861,8 +10317,11 @@
       <c r="R152" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
@@ -9917,8 +10376,11 @@
       <c r="R153" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -9973,8 +10435,11 @@
       <c r="R154" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
@@ -10029,8 +10494,11 @@
       <c r="R155" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -10085,8 +10553,11 @@
       <c r="R156" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
@@ -10141,8 +10612,11 @@
       <c r="R157" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -10197,8 +10671,11 @@
       <c r="R158" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
@@ -10253,8 +10730,11 @@
       <c r="R159" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -10309,8 +10789,11 @@
       <c r="R160" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>13</v>
       </c>
@@ -10365,8 +10848,11 @@
       <c r="R161" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
@@ -10421,8 +10907,11 @@
       <c r="R162" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
@@ -10477,8 +10966,11 @@
       <c r="R163" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -10533,8 +11025,11 @@
       <c r="R164" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -10589,8 +11084,11 @@
       <c r="R165" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S165" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
@@ -10645,8 +11143,11 @@
       <c r="R166" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -10701,8 +11202,11 @@
       <c r="R167" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -10757,8 +11261,11 @@
       <c r="R168" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -10813,8 +11320,11 @@
       <c r="R169" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -10869,8 +11379,11 @@
       <c r="R170" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S170" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>14</v>
       </c>
@@ -10925,8 +11438,11 @@
       <c r="R171" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>14</v>
       </c>
@@ -10981,8 +11497,11 @@
       <c r="R172" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>14</v>
       </c>
@@ -11037,8 +11556,11 @@
       <c r="R173" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
@@ -11093,8 +11615,11 @@
       <c r="R174" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>14</v>
       </c>
@@ -11149,8 +11674,11 @@
       <c r="R175" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>14</v>
       </c>
@@ -11205,8 +11733,11 @@
       <c r="R176" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>14</v>
       </c>
@@ -11261,8 +11792,11 @@
       <c r="R177" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S177" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>14</v>
       </c>
@@ -11317,8 +11851,11 @@
       <c r="R178" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S178" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>14</v>
       </c>
@@ -11373,8 +11910,11 @@
       <c r="R179" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -11429,8 +11969,11 @@
       <c r="R180" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -11485,8 +12028,11 @@
       <c r="R181" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>15</v>
       </c>
@@ -11541,8 +12087,11 @@
       <c r="R182" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>15</v>
       </c>
@@ -11597,8 +12146,11 @@
       <c r="R183" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>15</v>
       </c>
@@ -11653,8 +12205,11 @@
       <c r="R184" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S184" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>15</v>
       </c>
@@ -11709,8 +12264,11 @@
       <c r="R185" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>15</v>
       </c>
@@ -11765,8 +12323,11 @@
       <c r="R186" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S186" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>15</v>
       </c>
@@ -11821,8 +12382,11 @@
       <c r="R187" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S187" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>15</v>
       </c>
@@ -11877,8 +12441,11 @@
       <c r="R188" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S188" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>15</v>
       </c>
@@ -11933,8 +12500,11 @@
       <c r="R189" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S189" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>15</v>
       </c>
@@ -11989,8 +12559,11 @@
       <c r="R190" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S190" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>15</v>
       </c>
@@ -12045,8 +12618,11 @@
       <c r="R191" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S191" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>15</v>
       </c>
@@ -12101,8 +12677,11 @@
       <c r="R192" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S192" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>15</v>
       </c>
@@ -12157,8 +12736,11 @@
       <c r="R193" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S193" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -12213,8 +12795,11 @@
       <c r="R194" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S194" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -12269,8 +12854,11 @@
       <c r="R195" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S195" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -12325,8 +12913,11 @@
       <c r="R196" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S196" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
@@ -12381,8 +12972,11 @@
       <c r="R197" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S197" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -12437,8 +13031,11 @@
       <c r="R198" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S198" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -12493,8 +13090,11 @@
       <c r="R199" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S199" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -12549,8 +13149,11 @@
       <c r="R200" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S200" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -12605,8 +13208,11 @@
       <c r="R201" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S201" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>16</v>
       </c>
@@ -12661,8 +13267,11 @@
       <c r="R202" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S202" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -12717,8 +13326,11 @@
       <c r="R203" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S203" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -12773,8 +13385,11 @@
       <c r="R204" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S204" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -12829,8 +13444,11 @@
       <c r="R205" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S205" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>17</v>
       </c>
@@ -12885,8 +13503,11 @@
       <c r="R206" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S206" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>17</v>
       </c>
@@ -12941,8 +13562,11 @@
       <c r="R207" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S207" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>17</v>
       </c>
@@ -12997,8 +13621,11 @@
       <c r="R208" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S208" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>17</v>
       </c>
@@ -13053,8 +13680,11 @@
       <c r="R209" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S209" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>17</v>
       </c>
@@ -13109,8 +13739,11 @@
       <c r="R210" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S210" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>17</v>
       </c>
@@ -13165,8 +13798,11 @@
       <c r="R211" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S211" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>17</v>
       </c>
@@ -13221,8 +13857,11 @@
       <c r="R212" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S212" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>17</v>
       </c>
@@ -13277,8 +13916,11 @@
       <c r="R213" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S213" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>17</v>
       </c>
@@ -13333,8 +13975,11 @@
       <c r="R214" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S214" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>17</v>
       </c>
@@ -13389,8 +14034,11 @@
       <c r="R215" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S215" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>17</v>
       </c>
@@ -13445,8 +14093,11 @@
       <c r="R216" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S216" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>17</v>
       </c>
@@ -13501,8 +14152,11 @@
       <c r="R217" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S217" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>18</v>
       </c>
@@ -13557,8 +14211,11 @@
       <c r="R218" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S218" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>18</v>
       </c>
@@ -13613,8 +14270,11 @@
       <c r="R219" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S219" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>18</v>
       </c>
@@ -13669,8 +14329,11 @@
       <c r="R220" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S220" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>18</v>
       </c>
@@ -13725,8 +14388,11 @@
       <c r="R221" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S221" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>18</v>
       </c>
@@ -13781,8 +14447,11 @@
       <c r="R222" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S222" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>18</v>
       </c>
@@ -13837,8 +14506,11 @@
       <c r="R223" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S223" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>18</v>
       </c>
@@ -13893,8 +14565,11 @@
       <c r="R224" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S224" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>18</v>
       </c>
@@ -13949,8 +14624,11 @@
       <c r="R225" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S225" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>18</v>
       </c>
@@ -14005,8 +14683,11 @@
       <c r="R226" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S226" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>18</v>
       </c>
@@ -14061,8 +14742,11 @@
       <c r="R227" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S227" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>18</v>
       </c>
@@ -14117,8 +14801,11 @@
       <c r="R228" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S228" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>18</v>
       </c>
@@ -14173,8 +14860,11 @@
       <c r="R229" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S229" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>19</v>
       </c>
@@ -14229,8 +14919,11 @@
       <c r="R230" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S230" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>19</v>
       </c>
@@ -14285,8 +14978,11 @@
       <c r="R231" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S231" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>19</v>
       </c>
@@ -14341,8 +15037,11 @@
       <c r="R232" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S232" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>19</v>
       </c>
@@ -14397,8 +15096,11 @@
       <c r="R233" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S233" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>19</v>
       </c>
@@ -14453,8 +15155,11 @@
       <c r="R234" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S234" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -14509,8 +15214,11 @@
       <c r="R235" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S235" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>19</v>
       </c>
@@ -14565,8 +15273,11 @@
       <c r="R236" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S236" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>19</v>
       </c>
@@ -14621,8 +15332,11 @@
       <c r="R237" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S237" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
@@ -14677,8 +15391,11 @@
       <c r="R238" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S238" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>19</v>
       </c>
@@ -14733,8 +15450,11 @@
       <c r="R239" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S239" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -14789,8 +15509,11 @@
       <c r="R240" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S240" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>19</v>
       </c>
@@ -14845,8 +15568,11 @@
       <c r="R241" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S241" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>20</v>
       </c>
@@ -14901,8 +15627,11 @@
       <c r="R242" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S242" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>20</v>
       </c>
@@ -14957,8 +15686,11 @@
       <c r="R243" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S243" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>20</v>
       </c>
@@ -15013,8 +15745,11 @@
       <c r="R244" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S244" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>20</v>
       </c>
@@ -15069,8 +15804,11 @@
       <c r="R245" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S245" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>20</v>
       </c>
@@ -15125,8 +15863,11 @@
       <c r="R246" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S246" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>20</v>
       </c>
@@ -15181,8 +15922,11 @@
       <c r="R247" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S247" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>20</v>
       </c>
@@ -15237,8 +15981,11 @@
       <c r="R248" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S248" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
@@ -15293,8 +16040,11 @@
       <c r="R249" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S249" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>20</v>
       </c>
@@ -15349,8 +16099,11 @@
       <c r="R250" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S250" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>20</v>
       </c>
@@ -15405,8 +16158,11 @@
       <c r="R251" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S251" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>20</v>
       </c>
@@ -15461,8 +16217,11 @@
       <c r="R252" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S252" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>20</v>
       </c>
@@ -15517,8 +16276,11 @@
       <c r="R253" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S253" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>21</v>
       </c>
@@ -15573,8 +16335,11 @@
       <c r="R254" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S254" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>21</v>
       </c>
@@ -15629,8 +16394,11 @@
       <c r="R255" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S255" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>21</v>
       </c>
@@ -15685,8 +16453,11 @@
       <c r="R256" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S256" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>21</v>
       </c>
@@ -15741,8 +16512,11 @@
       <c r="R257" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S257" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>21</v>
       </c>
@@ -15797,8 +16571,11 @@
       <c r="R258" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S258" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>21</v>
       </c>
@@ -15853,8 +16630,11 @@
       <c r="R259" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S259" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>21</v>
       </c>
@@ -15909,8 +16689,11 @@
       <c r="R260" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S260" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>21</v>
       </c>
@@ -15965,8 +16748,11 @@
       <c r="R261" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S261" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>21</v>
       </c>
@@ -16021,8 +16807,11 @@
       <c r="R262" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S262" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>21</v>
       </c>
@@ -16077,8 +16866,11 @@
       <c r="R263" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S263" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>21</v>
       </c>
@@ -16133,8 +16925,11 @@
       <c r="R264" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S264" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>21</v>
       </c>
@@ -16189,8 +16984,11 @@
       <c r="R265" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S265" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>22</v>
       </c>
@@ -16245,8 +17043,11 @@
       <c r="R266" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S266" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>22</v>
       </c>
@@ -16301,8 +17102,11 @@
       <c r="R267" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S267" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>22</v>
       </c>
@@ -16357,8 +17161,11 @@
       <c r="R268" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S268" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>22</v>
       </c>
@@ -16413,8 +17220,11 @@
       <c r="R269" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S269" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>22</v>
       </c>
@@ -16469,8 +17279,11 @@
       <c r="R270" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S270" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>22</v>
       </c>
@@ -16525,8 +17338,11 @@
       <c r="R271" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S271" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>22</v>
       </c>
@@ -16581,8 +17397,11 @@
       <c r="R272" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S272" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>22</v>
       </c>
@@ -16637,8 +17456,11 @@
       <c r="R273" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S273" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>22</v>
       </c>
@@ -16693,8 +17515,11 @@
       <c r="R274" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S274" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>22</v>
       </c>
@@ -16749,8 +17574,11 @@
       <c r="R275" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S275" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>22</v>
       </c>
@@ -16805,8 +17633,11 @@
       <c r="R276" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S276" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>22</v>
       </c>
@@ -16861,8 +17692,11 @@
       <c r="R277" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S277" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>23</v>
       </c>
@@ -16917,8 +17751,11 @@
       <c r="R278" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S278" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>23</v>
       </c>
@@ -16973,8 +17810,11 @@
       <c r="R279" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S279" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>23</v>
       </c>
@@ -17029,8 +17869,11 @@
       <c r="R280" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S280" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>23</v>
       </c>
@@ -17085,8 +17928,11 @@
       <c r="R281" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S281" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>23</v>
       </c>
@@ -17141,8 +17987,11 @@
       <c r="R282" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S282" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>23</v>
       </c>
@@ -17197,8 +18046,11 @@
       <c r="R283" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S283" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>23</v>
       </c>
@@ -17253,8 +18105,11 @@
       <c r="R284" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S284" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>23</v>
       </c>
@@ -17309,8 +18164,11 @@
       <c r="R285" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S285" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>23</v>
       </c>
@@ -17365,8 +18223,11 @@
       <c r="R286" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S286" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>23</v>
       </c>
@@ -17421,8 +18282,11 @@
       <c r="R287" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S287" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>23</v>
       </c>
@@ -17477,8 +18341,11 @@
       <c r="R288" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S288" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>23</v>
       </c>
@@ -17533,8 +18400,11 @@
       <c r="R289" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S289" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>24</v>
       </c>
@@ -17589,8 +18459,11 @@
       <c r="R290" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S290" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>24</v>
       </c>
@@ -17645,8 +18518,11 @@
       <c r="R291" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S291" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>24</v>
       </c>
@@ -17701,8 +18577,11 @@
       <c r="R292" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S292" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>24</v>
       </c>
@@ -17757,8 +18636,11 @@
       <c r="R293" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S293" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>24</v>
       </c>
@@ -17813,8 +18695,11 @@
       <c r="R294" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S294" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>24</v>
       </c>
@@ -17869,8 +18754,11 @@
       <c r="R295" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S295" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>24</v>
       </c>
@@ -17925,8 +18813,11 @@
       <c r="R296" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S296" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>24</v>
       </c>
@@ -17981,8 +18872,11 @@
       <c r="R297" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S297" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>24</v>
       </c>
@@ -18037,8 +18931,11 @@
       <c r="R298" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S298" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>24</v>
       </c>
@@ -18093,8 +18990,11 @@
       <c r="R299" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S299" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>24</v>
       </c>
@@ -18149,8 +19049,11 @@
       <c r="R300" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S300" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>24</v>
       </c>
@@ -18205,8 +19108,11 @@
       <c r="R301" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S301" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>25</v>
       </c>
@@ -18261,8 +19167,11 @@
       <c r="R302" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S302" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>25</v>
       </c>
@@ -18317,8 +19226,11 @@
       <c r="R303" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S303" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>25</v>
       </c>
@@ -18373,8 +19285,11 @@
       <c r="R304" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S304" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>25</v>
       </c>
@@ -18429,8 +19344,11 @@
       <c r="R305" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S305" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>25</v>
       </c>
@@ -18485,8 +19403,11 @@
       <c r="R306" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S306" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>25</v>
       </c>
@@ -18541,8 +19462,11 @@
       <c r="R307" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S307" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>25</v>
       </c>
@@ -18597,8 +19521,11 @@
       <c r="R308" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S308" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>25</v>
       </c>
@@ -18653,8 +19580,11 @@
       <c r="R309" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S309" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>25</v>
       </c>
@@ -18709,8 +19639,11 @@
       <c r="R310" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S310" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>25</v>
       </c>
@@ -18765,8 +19698,11 @@
       <c r="R311" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S311" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>25</v>
       </c>
@@ -18821,8 +19757,11 @@
       <c r="R312" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S312" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
@@ -18877,8 +19816,11 @@
       <c r="R313" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S313" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
@@ -18933,8 +19875,11 @@
       <c r="R314" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S314" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>26</v>
       </c>
@@ -18989,8 +19934,11 @@
       <c r="R315" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S315" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>26</v>
       </c>
@@ -19045,8 +19993,11 @@
       <c r="R316" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S316" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>26</v>
       </c>
@@ -19101,8 +20052,11 @@
       <c r="R317" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S317" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>26</v>
       </c>
@@ -19157,8 +20111,11 @@
       <c r="R318" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S318" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>26</v>
       </c>
@@ -19213,8 +20170,11 @@
       <c r="R319" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S319" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>26</v>
       </c>
@@ -19269,8 +20229,11 @@
       <c r="R320" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S320" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>26</v>
       </c>
@@ -19325,8 +20288,11 @@
       <c r="R321" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S321" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>26</v>
       </c>
@@ -19381,8 +20347,11 @@
       <c r="R322" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S322" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>26</v>
       </c>
@@ -19437,8 +20406,11 @@
       <c r="R323" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S323" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>26</v>
       </c>
@@ -19493,8 +20465,11 @@
       <c r="R324" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S324" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>26</v>
       </c>
@@ -19549,8 +20524,11 @@
       <c r="R325" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S325" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>27</v>
       </c>
@@ -19605,8 +20583,11 @@
       <c r="R326" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S326" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>27</v>
       </c>
@@ -19661,8 +20642,11 @@
       <c r="R327" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S327" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>27</v>
       </c>
@@ -19717,8 +20701,11 @@
       <c r="R328" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S328" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>27</v>
       </c>
@@ -19773,8 +20760,11 @@
       <c r="R329" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S329" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>27</v>
       </c>
@@ -19829,8 +20819,11 @@
       <c r="R330" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S330" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>27</v>
       </c>
@@ -19885,8 +20878,11 @@
       <c r="R331" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S331" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>27</v>
       </c>
@@ -19941,8 +20937,11 @@
       <c r="R332" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S332" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>27</v>
       </c>
@@ -19997,8 +20996,11 @@
       <c r="R333" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S333" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>27</v>
       </c>
@@ -20053,8 +21055,11 @@
       <c r="R334" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S334" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>27</v>
       </c>
@@ -20109,8 +21114,11 @@
       <c r="R335" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S335" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>27</v>
       </c>
@@ -20165,8 +21173,11 @@
       <c r="R336" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S336" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>27</v>
       </c>
@@ -20221,8 +21232,11 @@
       <c r="R337" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S337" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>28</v>
       </c>
@@ -20277,8 +21291,11 @@
       <c r="R338" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S338" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>28</v>
       </c>
@@ -20333,8 +21350,11 @@
       <c r="R339" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S339" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>28</v>
       </c>
@@ -20389,8 +21409,11 @@
       <c r="R340" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S340" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>28</v>
       </c>
@@ -20445,8 +21468,11 @@
       <c r="R341" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S341" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>28</v>
       </c>
@@ -20501,8 +21527,11 @@
       <c r="R342" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S342" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>28</v>
       </c>
@@ -20557,8 +21586,11 @@
       <c r="R343" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S343" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>28</v>
       </c>
@@ -20613,8 +21645,11 @@
       <c r="R344" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S344" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>28</v>
       </c>
@@ -20669,8 +21704,11 @@
       <c r="R345" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S345" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>28</v>
       </c>
@@ -20725,8 +21763,11 @@
       <c r="R346" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S346" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>28</v>
       </c>
@@ -20781,8 +21822,11 @@
       <c r="R347" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S347" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>28</v>
       </c>
@@ -20837,8 +21881,11 @@
       <c r="R348" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S348" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>28</v>
       </c>
@@ -20893,8 +21940,11 @@
       <c r="R349" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S349" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>29</v>
       </c>
@@ -20949,8 +21999,11 @@
       <c r="R350" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S350" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>29</v>
       </c>
@@ -21005,8 +22058,11 @@
       <c r="R351" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S351" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>29</v>
       </c>
@@ -21061,8 +22117,11 @@
       <c r="R352" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S352" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>29</v>
       </c>
@@ -21117,8 +22176,11 @@
       <c r="R353" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S353" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>29</v>
       </c>
@@ -21173,8 +22235,11 @@
       <c r="R354" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S354" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>29</v>
       </c>
@@ -21229,8 +22294,11 @@
       <c r="R355" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S355" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>29</v>
       </c>
@@ -21285,8 +22353,11 @@
       <c r="R356" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S356" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>29</v>
       </c>
@@ -21341,8 +22412,11 @@
       <c r="R357" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S357" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>29</v>
       </c>
@@ -21397,8 +22471,11 @@
       <c r="R358" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S358" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>29</v>
       </c>
@@ -21453,8 +22530,11 @@
       <c r="R359" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S359" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>29</v>
       </c>
@@ -21509,8 +22589,11 @@
       <c r="R360" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S360" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>29</v>
       </c>
@@ -21565,8 +22648,11 @@
       <c r="R361" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S361" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>30</v>
       </c>
@@ -21621,8 +22707,11 @@
       <c r="R362" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S362" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>30</v>
       </c>
@@ -21677,8 +22766,11 @@
       <c r="R363" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S363" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>30</v>
       </c>
@@ -21733,8 +22825,11 @@
       <c r="R364" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S364" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>30</v>
       </c>
@@ -21789,8 +22884,11 @@
       <c r="R365" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S365" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>30</v>
       </c>
@@ -21845,8 +22943,11 @@
       <c r="R366" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S366" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>30</v>
       </c>
@@ -21901,8 +23002,11 @@
       <c r="R367" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S367" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>30</v>
       </c>
@@ -21957,8 +23061,11 @@
       <c r="R368" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S368" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>30</v>
       </c>
@@ -22013,8 +23120,11 @@
       <c r="R369" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S369" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>30</v>
       </c>
@@ -22069,8 +23179,11 @@
       <c r="R370" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S370" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>30</v>
       </c>
@@ -22125,8 +23238,11 @@
       <c r="R371" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S371" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>30</v>
       </c>
@@ -22181,8 +23297,11 @@
       <c r="R372" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S372" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>30</v>
       </c>
@@ -22237,8 +23356,11 @@
       <c r="R373" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S373" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>31</v>
       </c>
@@ -22293,8 +23415,11 @@
       <c r="R374" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S374" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>31</v>
       </c>
@@ -22349,8 +23474,11 @@
       <c r="R375" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S375" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>31</v>
       </c>
@@ -22405,8 +23533,11 @@
       <c r="R376" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S376" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>31</v>
       </c>
@@ -22461,8 +23592,11 @@
       <c r="R377" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S377" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>31</v>
       </c>
@@ -22517,8 +23651,11 @@
       <c r="R378" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S378" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>31</v>
       </c>
@@ -22573,8 +23710,11 @@
       <c r="R379" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S379" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>31</v>
       </c>
@@ -22629,8 +23769,11 @@
       <c r="R380" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S380" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>31</v>
       </c>
@@ -22685,8 +23828,11 @@
       <c r="R381" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S381" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>31</v>
       </c>
@@ -22741,8 +23887,11 @@
       <c r="R382" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S382" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>31</v>
       </c>
@@ -22797,8 +23946,11 @@
       <c r="R383" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S383" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>31</v>
       </c>
@@ -22853,8 +24005,11 @@
       <c r="R384" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S384" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>31</v>
       </c>
@@ -22909,8 +24064,11 @@
       <c r="R385" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S385" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>32</v>
       </c>
@@ -22965,8 +24123,11 @@
       <c r="R386" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S386" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>32</v>
       </c>
@@ -23021,8 +24182,11 @@
       <c r="R387" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S387" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>32</v>
       </c>
@@ -23077,8 +24241,11 @@
       <c r="R388" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S388" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>32</v>
       </c>
@@ -23133,8 +24300,11 @@
       <c r="R389" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S389" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>32</v>
       </c>
@@ -23189,8 +24359,11 @@
       <c r="R390" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S390" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>32</v>
       </c>
@@ -23245,8 +24418,11 @@
       <c r="R391" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S391" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>32</v>
       </c>
@@ -23301,8 +24477,11 @@
       <c r="R392" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S392" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>32</v>
       </c>
@@ -23357,8 +24536,11 @@
       <c r="R393" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S393" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>32</v>
       </c>
@@ -23413,8 +24595,11 @@
       <c r="R394" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S394" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>32</v>
       </c>
@@ -23469,8 +24654,11 @@
       <c r="R395" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S395" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>32</v>
       </c>
@@ -23525,8 +24713,11 @@
       <c r="R396" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S396" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>32</v>
       </c>
@@ -23581,8 +24772,11 @@
       <c r="R397" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S397" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>33</v>
       </c>
@@ -23637,8 +24831,11 @@
       <c r="R398" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S398" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>33</v>
       </c>
@@ -23693,8 +24890,11 @@
       <c r="R399" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S399" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>33</v>
       </c>
@@ -23749,8 +24949,11 @@
       <c r="R400" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S400" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>33</v>
       </c>
@@ -23805,8 +25008,11 @@
       <c r="R401" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S401" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>33</v>
       </c>
@@ -23861,8 +25067,11 @@
       <c r="R402" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S402" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>33</v>
       </c>
@@ -23917,8 +25126,11 @@
       <c r="R403" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S403" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>33</v>
       </c>
@@ -23973,8 +25185,11 @@
       <c r="R404" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S404" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>33</v>
       </c>
@@ -24029,8 +25244,11 @@
       <c r="R405" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S405" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>33</v>
       </c>
@@ -24085,8 +25303,11 @@
       <c r="R406" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S406" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>33</v>
       </c>
@@ -24141,8 +25362,11 @@
       <c r="R407" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S407" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>33</v>
       </c>
@@ -24197,8 +25421,11 @@
       <c r="R408" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S408" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>33</v>
       </c>
@@ -24253,8 +25480,11 @@
       <c r="R409" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S409" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>34</v>
       </c>
@@ -24309,8 +25539,11 @@
       <c r="R410" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S410" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>34</v>
       </c>
@@ -24365,8 +25598,11 @@
       <c r="R411" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S411" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>34</v>
       </c>
@@ -24421,8 +25657,11 @@
       <c r="R412" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S412" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>34</v>
       </c>
@@ -24477,8 +25716,11 @@
       <c r="R413" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S413" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>34</v>
       </c>
@@ -24533,8 +25775,11 @@
       <c r="R414" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S414" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>34</v>
       </c>
@@ -24589,8 +25834,11 @@
       <c r="R415" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S415" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>34</v>
       </c>
@@ -24645,8 +25893,11 @@
       <c r="R416" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S416" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>34</v>
       </c>
@@ -24701,8 +25952,11 @@
       <c r="R417" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S417" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>34</v>
       </c>
@@ -24757,8 +26011,11 @@
       <c r="R418" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S418" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>34</v>
       </c>
@@ -24813,8 +26070,11 @@
       <c r="R419" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S419" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>34</v>
       </c>
@@ -24869,8 +26129,11 @@
       <c r="R420" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S420" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>34</v>
       </c>
@@ -24925,8 +26188,11 @@
       <c r="R421" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S421" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>35</v>
       </c>
@@ -24981,8 +26247,11 @@
       <c r="R422" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S422" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>35</v>
       </c>
@@ -25037,8 +26306,11 @@
       <c r="R423" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S423" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>35</v>
       </c>
@@ -25093,8 +26365,11 @@
       <c r="R424" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S424" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>35</v>
       </c>
@@ -25149,8 +26424,11 @@
       <c r="R425" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S425" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>35</v>
       </c>
@@ -25205,8 +26483,11 @@
       <c r="R426" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S426" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>35</v>
       </c>
@@ -25261,8 +26542,11 @@
       <c r="R427" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S427" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>35</v>
       </c>
@@ -25317,8 +26601,11 @@
       <c r="R428" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S428" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>35</v>
       </c>
@@ -25373,8 +26660,11 @@
       <c r="R429" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S429" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>35</v>
       </c>
@@ -25429,8 +26719,11 @@
       <c r="R430" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S430" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>35</v>
       </c>
@@ -25485,8 +26778,11 @@
       <c r="R431" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S431" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>35</v>
       </c>
@@ -25541,8 +26837,11 @@
       <c r="R432" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S432" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>35</v>
       </c>
@@ -25597,8 +26896,11 @@
       <c r="R433" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S433" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>36</v>
       </c>
@@ -25653,8 +26955,11 @@
       <c r="R434" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S434" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>36</v>
       </c>
@@ -25709,8 +27014,11 @@
       <c r="R435" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S435" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>36</v>
       </c>
@@ -25765,8 +27073,11 @@
       <c r="R436" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S436" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>36</v>
       </c>
@@ -25821,8 +27132,11 @@
       <c r="R437" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S437" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>36</v>
       </c>
@@ -25877,8 +27191,11 @@
       <c r="R438" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S438" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>36</v>
       </c>
@@ -25933,8 +27250,11 @@
       <c r="R439" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S439" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>36</v>
       </c>
@@ -25989,8 +27309,11 @@
       <c r="R440" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S440" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>36</v>
       </c>
@@ -26045,8 +27368,11 @@
       <c r="R441" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S441" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>36</v>
       </c>
@@ -26101,8 +27427,11 @@
       <c r="R442" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S442" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>36</v>
       </c>
@@ -26157,8 +27486,11 @@
       <c r="R443" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S443" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>36</v>
       </c>
@@ -26213,8 +27545,11 @@
       <c r="R444" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S444" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>36</v>
       </c>
@@ -26269,8 +27604,11 @@
       <c r="R445" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S445" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>37</v>
       </c>
@@ -26325,8 +27663,11 @@
       <c r="R446" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S446" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>37</v>
       </c>
@@ -26381,8 +27722,11 @@
       <c r="R447" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S447" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>37</v>
       </c>
@@ -26437,8 +27781,11 @@
       <c r="R448" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S448" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>37</v>
       </c>
@@ -26493,8 +27840,11 @@
       <c r="R449" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S449" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>37</v>
       </c>
@@ -26549,8 +27899,11 @@
       <c r="R450" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S450" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>37</v>
       </c>
@@ -26605,8 +27958,11 @@
       <c r="R451" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S451" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>37</v>
       </c>
@@ -26661,8 +28017,11 @@
       <c r="R452" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S452" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>37</v>
       </c>
@@ -26717,8 +28076,11 @@
       <c r="R453" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S453" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>37</v>
       </c>
@@ -26773,8 +28135,11 @@
       <c r="R454" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S454" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>37</v>
       </c>
@@ -26829,8 +28194,11 @@
       <c r="R455" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S455" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>37</v>
       </c>
@@ -26885,8 +28253,11 @@
       <c r="R456" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S456" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>37</v>
       </c>
@@ -26941,8 +28312,11 @@
       <c r="R457" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S457" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>38</v>
       </c>
@@ -26997,8 +28371,11 @@
       <c r="R458" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S458" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>38</v>
       </c>
@@ -27053,8 +28430,11 @@
       <c r="R459" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S459" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>38</v>
       </c>
@@ -27109,8 +28489,11 @@
       <c r="R460" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S460" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>38</v>
       </c>
@@ -27165,8 +28548,11 @@
       <c r="R461" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S461" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>38</v>
       </c>
@@ -27221,8 +28607,11 @@
       <c r="R462" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S462" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>38</v>
       </c>
@@ -27277,8 +28666,11 @@
       <c r="R463" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S463" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>38</v>
       </c>
@@ -27333,8 +28725,11 @@
       <c r="R464" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S464" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>38</v>
       </c>
@@ -27389,8 +28784,11 @@
       <c r="R465" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S465" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>38</v>
       </c>
@@ -27445,8 +28843,11 @@
       <c r="R466" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S466" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>38</v>
       </c>
@@ -27501,8 +28902,11 @@
       <c r="R467" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S467" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>38</v>
       </c>
@@ -27557,8 +28961,11 @@
       <c r="R468" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S468" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>38</v>
       </c>
@@ -27612,6 +29019,9 @@
       </c>
       <c r="R469" s="3">
         <v>800</v>
+      </c>
+      <c r="S469" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -27911,8 +29321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/CMCP_Manufacturing/InputCMPC.xlsx
+++ b/CMCP_Manufacturing/InputCMPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\Source\CMPC-manufacturing\CMCP_Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72E07BF-F58A-4623-907E-AAC685D6A96A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06731F-0858-42BF-ABE2-7967AFA42972}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="6045" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="6045" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="113">
   <si>
     <t>sku</t>
   </si>
@@ -297,6 +297,81 @@
   </si>
   <si>
     <t>days_on_hand</t>
+  </si>
+  <si>
+    <t>AR-1</t>
+  </si>
+  <si>
+    <t>AR-2</t>
+  </si>
+  <si>
+    <t>AR-3</t>
+  </si>
+  <si>
+    <t>AR-4</t>
+  </si>
+  <si>
+    <t>AR-5</t>
+  </si>
+  <si>
+    <t>BR-1</t>
+  </si>
+  <si>
+    <t>BR-2</t>
+  </si>
+  <si>
+    <t>BR-3</t>
+  </si>
+  <si>
+    <t>CH-1</t>
+  </si>
+  <si>
+    <t>CH-2</t>
+  </si>
+  <si>
+    <t>CH-3</t>
+  </si>
+  <si>
+    <t>CO-1</t>
+  </si>
+  <si>
+    <t>CO-2</t>
+  </si>
+  <si>
+    <t>EC-1</t>
+  </si>
+  <si>
+    <t>MX-1</t>
+  </si>
+  <si>
+    <t>MX-2</t>
+  </si>
+  <si>
+    <t>MX-3</t>
+  </si>
+  <si>
+    <t>MX-4</t>
+  </si>
+  <si>
+    <t>MX-5</t>
+  </si>
+  <si>
+    <t>MX-6</t>
+  </si>
+  <si>
+    <t>PE-1</t>
+  </si>
+  <si>
+    <t>PE-2</t>
+  </si>
+  <si>
+    <t>PE-3</t>
+  </si>
+  <si>
+    <t>UR-1</t>
+  </si>
+  <si>
+    <t>shifts</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="O262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -21602,27 +21677,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -21632,43 +21708,46 @@
       <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -21676,43 +21755,46 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>49.620932307692293</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>73.3</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>81.478548846153828</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>287.3</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9406</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1456</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-0.05</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6</v>
       </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
       </c>
       <c r="B3">
         <v>450</v>
@@ -21720,43 +21802,46 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>49.620932307692293</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>73.3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>81.478548846153828</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>284.60000000000002</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>8704</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1500</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.04</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -21764,43 +21849,46 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>49.620932307692293</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.8</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>73.3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>75.275932307692287</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>323.5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9528</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3760</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-0.03</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>6</v>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
         <v>600</v>
@@ -21808,43 +21896,46 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>49.620932307692293</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>73.3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>75.275932307692287</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>376.9</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10904</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2463</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-0.03</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>6</v>
       </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
       </c>
       <c r="B6">
         <v>800</v>
@@ -21852,43 +21943,46 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>49.620932307692293</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.8</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>73.3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>81.478548846153828</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>387.8</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12970</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3468</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
       </c>
       <c r="B7">
         <v>500</v>
@@ -21896,43 +21990,46 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74.963890226287916</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>99.551636976408275</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>75.548567645642748</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>221</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6630</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>512.79999999999995</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-4.07E-2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -21940,43 +22037,46 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>74.963890226287916</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.8</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>99.551636976408275</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>75.548567645642748</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>221</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6630</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>512.79999999999995</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-5.0800000000000005E-2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -21984,43 +22084,46 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>71.235556090515161</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.8</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>99.551636976408275</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>81.190719788155988</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>221</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6630</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>705.1</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-4.1100000000000005E-2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>96</v>
       </c>
       <c r="B10">
         <v>400</v>
@@ -22028,43 +22131,46 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>61.53846153846154</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>73.07692307692308</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>64.42307692307692</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>400</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3333</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1200</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.01</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>97</v>
       </c>
       <c r="B11">
         <v>500</v>
@@ -22072,43 +22178,46 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>61.53846153846154</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
       <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <v>73.07692307692308</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>64.42307692307692</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>533.33333333333337</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3333</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1200</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.01</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
       </c>
       <c r="B12">
         <v>800</v>
@@ -22116,43 +22225,46 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>61.53846153846154</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
       <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>73.07692307692308</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>72.115384615384613</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>533.33333333333337</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3333</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1200</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.01</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
       </c>
       <c r="B13">
         <v>350</v>
@@ -22160,43 +22272,46 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>28.53846153846154</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
       <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>40</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>38.53846153846154</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>114.2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9406</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1456</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-0.05</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
       </c>
       <c r="B14">
         <v>420</v>
@@ -22204,43 +22319,46 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>35.67307692307692</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
       <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>40</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>50.132211538461533</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>284.60000000000002</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8704</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1500</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-0.04</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>6</v>
       </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
       </c>
       <c r="B15">
         <v>600</v>
@@ -22248,43 +22366,46 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>60</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>82.142857142857139</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>139.375</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>197.2222222222222</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>6</v>
       </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
+      <c r="O15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>102</v>
       </c>
       <c r="B16">
         <v>400</v>
@@ -22292,43 +22413,46 @@
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>32.94</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
       <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>65.3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>49.265000000000001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>212</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6486</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1000</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>6</v>
       </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>103</v>
       </c>
       <c r="B17">
         <v>360</v>
@@ -22336,43 +22460,46 @@
       <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>32.94</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
       <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
         <v>65.3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>49.265000000000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>164</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>6486</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>6</v>
       </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>104</v>
       </c>
       <c r="B18">
         <v>360</v>
@@ -22380,43 +22507,46 @@
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>32.94</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>65.3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>49.265000000000001</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>205</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6486</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1000</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>6</v>
       </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
+      <c r="O18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
       </c>
       <c r="B19">
         <v>500</v>
@@ -22424,43 +22554,46 @@
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>32.94</v>
       </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
       <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>65.3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>49.265000000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>222</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6486</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1000</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>6</v>
       </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
       </c>
       <c r="B20">
         <v>600</v>
@@ -22468,43 +22601,46 @@
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20">
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>32.94</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>65.3</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>57.427499999999995</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>243</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6486</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6</v>
       </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6</v>
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
       </c>
       <c r="B21">
         <v>800</v>
@@ -22512,43 +22648,46 @@
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>8</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>32.94</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>65.3</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>57.427499999999995</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>243</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>6486</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.01</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>6</v>
       </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
+      <c r="O21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
       <c r="B22">
         <v>400</v>
@@ -22556,43 +22695,46 @@
       <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>31.401452028889345</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3.2222222222222223</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>81.17242004738128</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>56.245535985195581</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>232.3457962962963</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3271.4175732133326</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>460.15885128205127</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-1.9188498652814037E-2</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6</v>
       </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
+      <c r="O22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>109</v>
       </c>
       <c r="B23">
         <v>500</v>
@@ -22600,43 +22742,46 @@
       <c r="C23">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>31.401452028889345</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.2222222222222223</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>81.17242004738128</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>56.245535985195581</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>241.3935185185185</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3271.4175732133326</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>659.40738461538467</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-1.9424940820560108E-2</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6</v>
       </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
       </c>
       <c r="B24">
         <v>500</v>
@@ -22644,43 +22789,46 @@
       <c r="C24">
         <v>7</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>31.401452028889345</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3.2222222222222223</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>81.17242004738128</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>60.170717488806744</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>234.09348148148149</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>3271.4175732133326</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1138.0806017094017</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-5.6073892456998467E-3</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>6</v>
       </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>111</v>
       </c>
       <c r="B25">
         <v>600</v>
@@ -22688,37 +22836,40 @@
       <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <v>7</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>32.051282051282051</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>38.4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>52.044871794871796</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>256.41025641025641</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>7000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1260</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2</v>
       </c>
     </row>

--- a/CMCP_Manufacturing/InputCMPC.xlsx
+++ b/CMCP_Manufacturing/InputCMPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ite02\Documents\Gaston\Source\CMPC-manufacturing\CMCP_Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06731F-0858-42BF-ABE2-7967AFA42972}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC3B142-3487-492D-A535-36428ACAC40E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="6045" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21679,8 +21679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21756,7 +21756,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -21850,7 +21850,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>8</v>
